--- a/datasets/egresos_vori_vost_2024.xlsx
+++ b/datasets/egresos_vori_vost_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{837406D4-8A3F-4C64-855B-B3EC5B8129D7}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8445D99A-C88D-4239-82C5-4B0D2B6DAF6D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8445D99A-C88D-4239-82C5-4B0D2B6DAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/datasets/egresos_vori_vost_2024.xlsx
+++ b/datasets/egresos_vori_vost_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6B5CF6-8078-4610-908E-89A9461AD77D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C971CB81-3EDF-4336-8D77-2B66F00431AC}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8445D99A-C88D-4239-82C5-4B0D2B6DAF6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8445D99A-C88D-4239-82C5-4B0D2B6DAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17256" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19371" uniqueCount="2388">
   <si>
     <t>Fecha</t>
   </si>
@@ -6519,6 +6519,687 @@
   </si>
   <si>
     <t>Melaminas y Cubiertas</t>
+  </si>
+  <si>
+    <t>SERVICIOS JUNIO 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 27 </t>
+  </si>
+  <si>
+    <t>F-1077</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>RENTA JUNIO 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 1444 </t>
+  </si>
+  <si>
+    <t>F-1444</t>
+  </si>
+  <si>
+    <t>04025036459639070231 - POLIZA MOTO</t>
+  </si>
+  <si>
+    <t>F-157526104</t>
+  </si>
+  <si>
+    <t>DEVOLUCION PRESTAMO 0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 27 2 </t>
+  </si>
+  <si>
+    <t>F-1080</t>
+  </si>
+  <si>
+    <t>COTIZACION 0307 VV</t>
+  </si>
+  <si>
+    <t>F-19626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA F8A6 </t>
+  </si>
+  <si>
+    <t>F-F8A6</t>
+  </si>
+  <si>
+    <t>F-309431</t>
+  </si>
+  <si>
+    <t>F-309287</t>
+  </si>
+  <si>
+    <t>F-309288</t>
+  </si>
+  <si>
+    <t>FACTURA 4448</t>
+  </si>
+  <si>
+    <t>F-4448</t>
+  </si>
+  <si>
+    <t>CARGA SEM 28</t>
+  </si>
+  <si>
+    <t>F-1088</t>
+  </si>
+  <si>
+    <t>CARGA SEM 28 2</t>
+  </si>
+  <si>
+    <t>F-1091</t>
+  </si>
+  <si>
+    <t>PAGO CFE B288</t>
+  </si>
+  <si>
+    <t>COMPRA TINTAS IMPRESORA</t>
+  </si>
+  <si>
+    <t>INSUMOS DEL MES - SAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO TELMEX </t>
+  </si>
+  <si>
+    <t>COMPRA DE PAPELERIA</t>
+  </si>
+  <si>
+    <t>VVS 061 - DONNA MOSS NIGHTSTANDS</t>
+  </si>
+  <si>
+    <t>ALMACENAMIENTO DIREC PRODUCCION</t>
+  </si>
+  <si>
+    <t>CHECADOR PRODUCCION</t>
+  </si>
+  <si>
+    <t>COMPRA DE CUBREBOCAS PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOLUCION PRESTAMO                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOLUCION PRESTAMO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 28 3                                               </t>
+  </si>
+  <si>
+    <t>F-1092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93862                   </t>
+  </si>
+  <si>
+    <t>F-93862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93861                           </t>
+  </si>
+  <si>
+    <t>F-93861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93860                           </t>
+  </si>
+  <si>
+    <t>F-93860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS 1207                             </t>
+  </si>
+  <si>
+    <t>CTVV 2911</t>
+  </si>
+  <si>
+    <t>CTVV 2911 - CASA 3M</t>
+  </si>
+  <si>
+    <t>F-1462</t>
+  </si>
+  <si>
+    <t>CTVV 2937</t>
+  </si>
+  <si>
+    <t>CTVV 2937 - VERONESA PROTOTIPO B - CONSTRUCTORA HYG</t>
+  </si>
+  <si>
+    <t>DESTAJO MARCO BARRERA</t>
+  </si>
+  <si>
+    <t>DESTAJO LUIS HUANTE</t>
+  </si>
+  <si>
+    <t>CTVV 3065</t>
+  </si>
+  <si>
+    <t>CTVV 3013</t>
+  </si>
+  <si>
+    <t>CTVV 3013 - CASA FLORENCIA- SARA CORNEJO</t>
+  </si>
+  <si>
+    <t>CTVV 2502 - CABO SUR PROTOTIPO MALDOVA</t>
+  </si>
+  <si>
+    <t>CTVV 3066</t>
+  </si>
+  <si>
+    <t>CTVV 3066 - CAMBIO DE TONO CASAS MUESTRA VERONESA</t>
+  </si>
+  <si>
+    <t>DESTAJO ELIAS CAPDEVILA</t>
+  </si>
+  <si>
+    <t>CTVV 2978</t>
+  </si>
+  <si>
+    <t>CTVV 2978 - PROTOTIPO K06 - VILLAS DEL SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 188A          </t>
+  </si>
+  <si>
+    <t>F-188A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 833 ESTACIONAMIENTO                    </t>
+  </si>
+  <si>
+    <t>F-833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 28 4                         </t>
+  </si>
+  <si>
+    <t>F-1096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 29 </t>
+  </si>
+  <si>
+    <t>F-1099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93973 </t>
+  </si>
+  <si>
+    <t>F-93973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93971 </t>
+  </si>
+  <si>
+    <t>F-93971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 93972 </t>
+  </si>
+  <si>
+    <t>F-93972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS 1907 </t>
+  </si>
+  <si>
+    <t>NOMINA VORI VOST SEMANA 29</t>
+  </si>
+  <si>
+    <t>F-1467</t>
+  </si>
+  <si>
+    <t>F-1469</t>
+  </si>
+  <si>
+    <t>CTVV 2592</t>
+  </si>
+  <si>
+    <t>DESTAJO JESUS SOTO</t>
+  </si>
+  <si>
+    <t>CTVV 3057</t>
+  </si>
+  <si>
+    <t>CTVV 3057 - NICARAGUA 135 - HERCOM</t>
+  </si>
+  <si>
+    <t>CTVV 2431</t>
+  </si>
+  <si>
+    <t>CTVV 2431 - COCINA DE TORRE BOSQUES CAMELINAS - HERCOM</t>
+  </si>
+  <si>
+    <t>'04244H4V750042999466</t>
+  </si>
+  <si>
+    <t>'04244GWY720042993467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 29 2 </t>
+  </si>
+  <si>
+    <t>F-1105</t>
+  </si>
+  <si>
+    <t>'31090274160142996238</t>
+  </si>
+  <si>
+    <t>GOBIERNO DE MICH</t>
+  </si>
+  <si>
+    <t>CARGA SEM 30</t>
+  </si>
+  <si>
+    <t>F-1108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 30 2 </t>
+  </si>
+  <si>
+    <t>F-1111</t>
+  </si>
+  <si>
+    <t>FACTURA 94132</t>
+  </si>
+  <si>
+    <t>F-94132</t>
+  </si>
+  <si>
+    <t>FACTURA 94133</t>
+  </si>
+  <si>
+    <t>F-94133</t>
+  </si>
+  <si>
+    <t>FACTURA 94131</t>
+  </si>
+  <si>
+    <t>F-94131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS 2507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 40920 </t>
+  </si>
+  <si>
+    <t>F-40920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41012 </t>
+  </si>
+  <si>
+    <t>F-41012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41100 </t>
+  </si>
+  <si>
+    <t>F-41100</t>
+  </si>
+  <si>
+    <t>FACTURA 41142</t>
+  </si>
+  <si>
+    <t>F-41142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41193 </t>
+  </si>
+  <si>
+    <t>F-41193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41224 </t>
+  </si>
+  <si>
+    <t>F-41224</t>
+  </si>
+  <si>
+    <t>NOMINA VORI VOST SEMANA 30</t>
+  </si>
+  <si>
+    <t>F-1477</t>
+  </si>
+  <si>
+    <t>CTVV 2776 - CASA JML - MIGUEL MALDONADO</t>
+  </si>
+  <si>
+    <t>F-1478</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>FACTURA 1529 RENTA B270</t>
+  </si>
+  <si>
+    <t>F-1529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft*Micro  CMX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 31 </t>
+  </si>
+  <si>
+    <t>F-1113</t>
+  </si>
+  <si>
+    <t>F-028526296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 31             </t>
+  </si>
+  <si>
+    <t>F-1116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 4505                      </t>
+  </si>
+  <si>
+    <t>F-4505</t>
+  </si>
+  <si>
+    <t>VIATICOS ZAMORA</t>
+  </si>
+  <si>
+    <t>GERARDO ALEGRIA</t>
+  </si>
+  <si>
+    <t>COMPRA DE ADITIVO - CAMION NUEVO</t>
+  </si>
+  <si>
+    <t>CTVV 2973 - CASA VS - ARQ. JAVIER MEDINA</t>
+  </si>
+  <si>
+    <t>CTVV 3087 - CASA VILLA VELZAQUEZ - CARLOS VILLICAÑA</t>
+  </si>
+  <si>
+    <t>PIPA DE AGUA B270 B288</t>
+  </si>
+  <si>
+    <t>SEMANA 27 OPERATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 27 ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>BONOS SEMANA 26</t>
+  </si>
+  <si>
+    <t>FINIQUITO - KEVIN GONZALEZ</t>
+  </si>
+  <si>
+    <t>KEVIN GONZALEZ</t>
+  </si>
+  <si>
+    <t>FINIQUITO - HENRY SALDIVAR</t>
+  </si>
+  <si>
+    <t>HENRY SALDIVAR</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - MARLENE CARRILLO</t>
+  </si>
+  <si>
+    <t>MARLENE CARRILLO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - OSIEL GARCIA</t>
+  </si>
+  <si>
+    <t>OSIEL GARCIA</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - FRANCISCO GUZMAN</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - OSCAR ANDREI</t>
+  </si>
+  <si>
+    <t>OSCAR ANDREI</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - ANA SOFIA GARCIA</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO ARREDONDO</t>
+  </si>
+  <si>
+    <t>TRABAJOS DE HERRERIA</t>
+  </si>
+  <si>
+    <t>UNIFORMES TORNEO AIEMAC MUJERES</t>
+  </si>
+  <si>
+    <t>INSCRIPCION TORNEO FUT - AIEMAC - MUJERES</t>
+  </si>
+  <si>
+    <t>ENTREGA DE ELECTRODOMESTICOS</t>
+  </si>
+  <si>
+    <t>2DA QUINCENA DE JUNIO</t>
+  </si>
+  <si>
+    <t>LICENCIAS ANTIVIRUS</t>
+  </si>
+  <si>
+    <t>APARTADO DE CANCHAS PARA PARTIDOS</t>
+  </si>
+  <si>
+    <t>CTVV 3013 - CASA FLORENCIA - SARA CORNEJO</t>
+  </si>
+  <si>
+    <t>COMISION VENTA CTVV 2930</t>
+  </si>
+  <si>
+    <t>VERIFICACION CAMIONES</t>
+  </si>
+  <si>
+    <t>DONNA</t>
+  </si>
+  <si>
+    <t>ENVIO MONTERREY</t>
+  </si>
+  <si>
+    <t>COMPRA MEDICAMENTOS - ADMIN/PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIQUIN PARA PARTIDOS FUT </t>
+  </si>
+  <si>
+    <t>CONSULTA MEDICA - HESAU VILLAGOMEZ</t>
+  </si>
+  <si>
+    <t>VIATICOS RECOLECCION CRISTALES</t>
+  </si>
+  <si>
+    <t>SEMANA 28 OPERATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 28 ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>BONOS SEMANA 27</t>
+  </si>
+  <si>
+    <t>FINIQUITO - RODRIGO SANCHEZ</t>
+  </si>
+  <si>
+    <t>RODRIGO IVAN SANCHEZ</t>
+  </si>
+  <si>
+    <t>FINIQUITO - MANUEL ALEJANDRO ZAVALA</t>
+  </si>
+  <si>
+    <t>MANUEL A. ZAVALA</t>
+  </si>
+  <si>
+    <t>FINIQUITO - LEONARDO CAMPOS</t>
+  </si>
+  <si>
+    <t>LEONARDO D. CAMPOS BAZAN</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - OMAR ABEL SANCHEZ</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - LILIANA PANTOJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA VACACIONAL - DANAE FLORES </t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - PAULINA B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARREGLO DE BOMBA </t>
+  </si>
+  <si>
+    <t>ARREGLO COCHE JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ALINEACION Y BALANCEO</t>
+  </si>
+  <si>
+    <t>MANTTO B714</t>
+  </si>
+  <si>
+    <t>CONDOMINOS PARQUE INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>MANTTO B270</t>
+  </si>
+  <si>
+    <t>CTVV 2149 - $8 163.39</t>
+  </si>
+  <si>
+    <t>GARRAFAONES DE AGUA</t>
+  </si>
+  <si>
+    <t>COMPRA DE TABLERO</t>
+  </si>
+  <si>
+    <t>SEMANA 29 OPERATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 29 ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>BONOS SEMANA 28</t>
+  </si>
+  <si>
+    <t>FINIQUITO - JOSE LUIS CONTRERAS</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CONTRERAS</t>
+  </si>
+  <si>
+    <t>FINIQUITO - ROBERTO E. ANZO MARTINES</t>
+  </si>
+  <si>
+    <t>ROBERTO E. ANZO MARTINES</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - JOSE LARA CATAÑO</t>
+  </si>
+  <si>
+    <t>JOSE LARA CATAÑO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - DORIBEL MEDINA</t>
+  </si>
+  <si>
+    <t>1RA QUINCENA DE JULIO</t>
+  </si>
+  <si>
+    <t>ARREGLO DE BOMBA AGUA</t>
+  </si>
+  <si>
+    <t>CTVV 1365 - $6,836.61</t>
+  </si>
+  <si>
+    <t>PASTEL - VIRI Y CONY</t>
+  </si>
+  <si>
+    <t>REPOSICION DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>HESAU</t>
+  </si>
+  <si>
+    <t>ARREGLO DE CAMIONETA</t>
+  </si>
+  <si>
+    <t>TAXI RH - CHARO</t>
+  </si>
+  <si>
+    <t>PAGO DE INTERESES BANCO AG JUNIO</t>
+  </si>
+  <si>
+    <t>SEMANA 30 OPERATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 30 ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>FINIQUITO - JUAN CARLOS LUNA</t>
+  </si>
+  <si>
+    <t>FINIQUITO - JONATHAN OMAR SILVA TOVAR</t>
+  </si>
+  <si>
+    <t>JONATHAN OMAR SILVA TOVAR</t>
+  </si>
+  <si>
+    <t>FINIQUITO - GERARDO ALEXIS ALCANTAR ROSALES</t>
+  </si>
+  <si>
+    <t>GERARDO ALEXIS ALCANTAR ROSALES</t>
+  </si>
+  <si>
+    <t>ACEITE COCHE JUAN CARLOS LUNA</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DISEÑO SEM 30</t>
+  </si>
+  <si>
+    <t>ABIMAEL VARGAS</t>
+  </si>
+  <si>
+    <t>TORTAS FIN DE MES</t>
+  </si>
+  <si>
+    <t>CTVV 2149/ CTVV 2161 (ESPARTA ZAMORA)</t>
+  </si>
+  <si>
+    <t>APOYO CON LIMPIEZA</t>
+  </si>
+  <si>
+    <t>PIPAS DE AGUA 288-270</t>
+  </si>
+  <si>
+    <t>FINIQUITO HEIMMY MAYTE MONTERO</t>
+  </si>
+  <si>
+    <t>HEIMMY MAYTE MONTERO</t>
+  </si>
+  <si>
+    <t>FINIQUITO JORGE R. LOPEZ JARAMILLO</t>
+  </si>
+  <si>
+    <t>PLAN DE RH</t>
+  </si>
+  <si>
+    <t>PAGO INTERESES - JULIO</t>
   </si>
 </sst>
 </file>
@@ -6586,9 +7267,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}" name="Tabla1" displayName="Tabla1" ref="A1:J2334" totalsRowShown="0">
-  <autoFilter ref="A1:J2334" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}" name="Tabla1" displayName="Tabla1" ref="A1:J2616" totalsRowShown="0">
+  <autoFilter ref="A1:J2616" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6496E6E2-3EFF-490D-8372-1A321A39497A}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7EE87F25-CD44-454E-B788-99841D5EFFAB}" name="Cliente"/>
@@ -6922,10 +7607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609A72D3-1031-4DB7-950F-61A2759BA625}">
-  <dimension ref="A1:J2334"/>
+  <dimension ref="A1:J2616"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2302" workbookViewId="0">
-      <selection activeCell="A2315" sqref="A2315"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2583" workbookViewId="0">
+      <selection activeCell="A2616" sqref="A2616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77124,7 +77809,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2321" s="1">
         <v>45471</v>
       </c>
@@ -77153,7 +77838,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="2322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2322" s="1">
         <v>45471</v>
       </c>
@@ -77182,7 +77867,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="2323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2323" s="1">
         <v>45471</v>
       </c>
@@ -77211,7 +77896,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="2324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2324" s="1">
         <v>45471</v>
       </c>
@@ -77240,7 +77925,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="2325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2325" s="1">
         <v>45471</v>
       </c>
@@ -77269,7 +77954,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="2326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2326" s="1">
         <v>45471</v>
       </c>
@@ -77298,7 +77983,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="2327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2327" s="1">
         <v>45471</v>
       </c>
@@ -77327,7 +78012,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="2328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2328" s="1">
         <v>45471</v>
       </c>
@@ -77356,7 +78041,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="2329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2329" s="1">
         <v>45471</v>
       </c>
@@ -77385,7 +78070,7 @@
         <v>5552</v>
       </c>
     </row>
-    <row r="2330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2330" s="1">
         <v>45471</v>
       </c>
@@ -77414,7 +78099,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="2331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2331" s="1">
         <v>45457</v>
       </c>
@@ -77440,7 +78125,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2332" s="1">
         <v>45458</v>
       </c>
@@ -77463,7 +78148,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="2333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2333" s="1">
         <v>45446</v>
       </c>
@@ -77486,7 +78171,7 @@
         <v>1802.66</v>
       </c>
     </row>
-    <row r="2334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2334" s="1">
         <v>45464</v>
       </c>
@@ -77507,6 +78192,8610 @@
       </c>
       <c r="I2334">
         <v>4200</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2335" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2335" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2335">
+        <v>4737.6000000000004</v>
+      </c>
+      <c r="J2335" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2336" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2336" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2336">
+        <v>5000</v>
+      </c>
+      <c r="J2336" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2337" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2337" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2337">
+        <v>12860.27</v>
+      </c>
+      <c r="J2337" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2338" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2338" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2338">
+        <v>200</v>
+      </c>
+      <c r="J2338" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2339" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2339" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2339" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2339">
+        <v>32</v>
+      </c>
+      <c r="J2339" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2340" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2340" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G2340" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2340" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2340">
+        <v>72900</v>
+      </c>
+      <c r="J2340" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2341" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2341" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2341" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2341">
+        <v>15694.77</v>
+      </c>
+      <c r="J2341" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2342" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2342">
+        <v>4352.84</v>
+      </c>
+      <c r="J2342" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2343" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G2343" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2343" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2343">
+        <v>50000</v>
+      </c>
+      <c r="J2343" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2344" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G2344" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2344" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2344">
+        <v>5000</v>
+      </c>
+      <c r="J2344" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2345" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G2345" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2345" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2345">
+        <v>2000</v>
+      </c>
+      <c r="J2345" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2346" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2346" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2346">
+        <v>739.89</v>
+      </c>
+      <c r="J2346" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2347" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2347" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2347">
+        <v>55081.5</v>
+      </c>
+      <c r="J2347" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2348" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2348" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2348">
+        <v>74600</v>
+      </c>
+      <c r="J2348" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2349" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>804</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2349" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2349">
+        <v>38500</v>
+      </c>
+      <c r="J2349" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2350" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>807</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2350" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2350">
+        <v>12000</v>
+      </c>
+      <c r="J2350" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2351" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2351" t="s">
+        <v>808</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2351" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2351">
+        <v>2393.12</v>
+      </c>
+      <c r="J2351" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2352" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G2352" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2352" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2352">
+        <v>29</v>
+      </c>
+      <c r="J2352" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2353" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2353" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2353">
+        <v>29</v>
+      </c>
+      <c r="J2353" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2354" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2354" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2354">
+        <v>103919.58</v>
+      </c>
+      <c r="J2354" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2355" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2355" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G2355" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2355" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2355">
+        <v>25520</v>
+      </c>
+      <c r="J2355" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2356" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2356" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2356" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2356">
+        <v>20432.87</v>
+      </c>
+      <c r="J2356" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2357" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2357" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2357">
+        <v>9892.92</v>
+      </c>
+      <c r="J2357" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2358" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>728</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2358" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2358">
+        <v>20432.87</v>
+      </c>
+      <c r="J2358" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2359" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2359" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2359" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2359">
+        <v>12393.56</v>
+      </c>
+      <c r="J2359" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2360" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2360" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2360">
+        <v>7000</v>
+      </c>
+      <c r="J2360" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2361" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2361" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2361" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2361" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2361">
+        <v>797.09</v>
+      </c>
+      <c r="J2361" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2362" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>729</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2362" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2362">
+        <v>797.09</v>
+      </c>
+      <c r="J2362" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2363" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2363" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2363">
+        <v>71428.570000000007</v>
+      </c>
+      <c r="J2363" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2364" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2364" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2364" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2364">
+        <v>54136.9</v>
+      </c>
+      <c r="J2364" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2365" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2365" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2365">
+        <v>2000</v>
+      </c>
+      <c r="J2365" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2366" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2366" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2366">
+        <v>11709</v>
+      </c>
+      <c r="J2366" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2367" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2367" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G2367" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2367" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2367">
+        <v>2247</v>
+      </c>
+      <c r="J2367" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2368" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2368" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2368" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2368">
+        <v>4371.3</v>
+      </c>
+      <c r="J2368" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2369" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2369">
+        <v>2347</v>
+      </c>
+      <c r="J2369" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2370" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2370" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2370">
+        <v>2646.9</v>
+      </c>
+      <c r="J2370" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2371" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G2371" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2371" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2371">
+        <v>1988.3500000000004</v>
+      </c>
+      <c r="J2371" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2372" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2372" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2372">
+        <v>1262.03</v>
+      </c>
+      <c r="J2372" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2373" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2373" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2373">
+        <v>49</v>
+      </c>
+      <c r="J2373" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2374" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G2374" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2374" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2374">
+        <v>2997</v>
+      </c>
+      <c r="J2374" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2375" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G2375" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2375">
+        <v>1232.8699999999999</v>
+      </c>
+      <c r="J2375" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2376" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>829</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2376" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2376">
+        <v>3404.22</v>
+      </c>
+      <c r="J2376" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2377" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G2377" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2377" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2377">
+        <v>100000</v>
+      </c>
+      <c r="J2377" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2378" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G2378" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2378">
+        <v>100000</v>
+      </c>
+      <c r="J2378" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2379" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2379">
+        <v>5000</v>
+      </c>
+      <c r="J2379" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2380" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2380" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2380">
+        <v>28100.36</v>
+      </c>
+      <c r="J2380" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2381" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2381" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2381">
+        <v>1793.64</v>
+      </c>
+      <c r="J2381" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2382" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2382" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2382">
+        <v>42573.53</v>
+      </c>
+      <c r="J2382" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2383" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2383" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2383" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2383">
+        <v>2717.46</v>
+      </c>
+      <c r="J2383" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2384" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2384" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2384">
+        <v>70046.929999999993</v>
+      </c>
+      <c r="J2384" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2385" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G2385" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2385" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2385">
+        <v>4471.08</v>
+      </c>
+      <c r="J2385" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2386" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2386" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2386">
+        <v>70620</v>
+      </c>
+      <c r="J2386" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2387" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2387" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2387">
+        <v>102674.93</v>
+      </c>
+      <c r="J2387" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2388" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2388" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2388">
+        <v>1020.83</v>
+      </c>
+      <c r="J2388" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2389" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2389" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2389">
+        <v>6940.17</v>
+      </c>
+      <c r="J2389" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2390" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2390" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2390">
+        <v>5520.17</v>
+      </c>
+      <c r="J2390" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2391" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G2391" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2391" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2391">
+        <v>6782.5</v>
+      </c>
+      <c r="J2391" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2392" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G2392" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2392" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2392">
+        <v>21837</v>
+      </c>
+      <c r="J2392" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2393" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2393" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2393">
+        <v>4717.1000000000004</v>
+      </c>
+      <c r="J2393" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2394" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2394" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2394">
+        <v>5483.33</v>
+      </c>
+      <c r="J2394" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2395" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2395" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2395">
+        <v>541.57000000000005</v>
+      </c>
+      <c r="J2395" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2396" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>947</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2396" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2396">
+        <v>2366.67</v>
+      </c>
+      <c r="J2396" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2397" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>946</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2397" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2397">
+        <v>7743</v>
+      </c>
+      <c r="J2397" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2398" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2398" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2398">
+        <v>6136</v>
+      </c>
+      <c r="J2398" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2399" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2399" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2399" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2399">
+        <v>4100</v>
+      </c>
+      <c r="J2399" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2400" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2400" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2400">
+        <v>4886.3999999999996</v>
+      </c>
+      <c r="J2400" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2401" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>945</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2401" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2401">
+        <v>6100</v>
+      </c>
+      <c r="J2401" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2402" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>997</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>998</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>945</v>
+      </c>
+      <c r="G2402" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2402" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2402">
+        <v>280</v>
+      </c>
+      <c r="J2402" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2403" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2403" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2403">
+        <v>5912.79</v>
+      </c>
+      <c r="J2403" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2404" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2404" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2404" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2404">
+        <v>32000</v>
+      </c>
+      <c r="J2404" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2405" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2405" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G2405" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2405" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2405">
+        <v>10440</v>
+      </c>
+      <c r="J2405" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2406" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2406" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2406">
+        <v>7000</v>
+      </c>
+      <c r="J2406" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2407" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2407" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2407">
+        <v>500</v>
+      </c>
+      <c r="J2407" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2408" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2408" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2408">
+        <v>9000</v>
+      </c>
+      <c r="J2408" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2409" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>964</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2409" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2409">
+        <v>1477</v>
+      </c>
+      <c r="J2409" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2410" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2410" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2410">
+        <v>40741.480000000003</v>
+      </c>
+      <c r="J2410" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2411" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2411" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2411">
+        <v>2600.52</v>
+      </c>
+      <c r="J2411" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2412" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2412">
+        <v>69749.789999999994</v>
+      </c>
+      <c r="J2412" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2413" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2413" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2413">
+        <v>4452.1099999999997</v>
+      </c>
+      <c r="J2413" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2414" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2414" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2414">
+        <v>33043.910000000003</v>
+      </c>
+      <c r="J2414" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2415" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2415" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2415">
+        <v>2109.19</v>
+      </c>
+      <c r="J2415" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2416" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2416" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2416" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2416">
+        <v>70500</v>
+      </c>
+      <c r="J2416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2417" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2417" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2417" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2417">
+        <v>71193.53</v>
+      </c>
+      <c r="J2417" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2418" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2418" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2418">
+        <v>92966.66</v>
+      </c>
+      <c r="J2418" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2419" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2419" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2419">
+        <v>22568.1</v>
+      </c>
+      <c r="J2419" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2420" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2420" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2420">
+        <v>3487.5</v>
+      </c>
+      <c r="J2420" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2421" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G2421" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2421" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2421">
+        <v>1000</v>
+      </c>
+      <c r="J2421" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2422" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G2422" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2422" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2422">
+        <v>400</v>
+      </c>
+      <c r="J2422" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2423" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>946</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2423" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2423">
+        <v>5975</v>
+      </c>
+      <c r="J2423" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2424" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2424" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2424">
+        <v>1675.39</v>
+      </c>
+      <c r="J2424" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2425" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>947</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2425" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2425" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2425">
+        <v>2366.67</v>
+      </c>
+      <c r="J2425" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2426" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2426" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2426">
+        <v>5916.67</v>
+      </c>
+      <c r="J2426" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2427" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>947</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2427" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2427">
+        <v>850</v>
+      </c>
+      <c r="J2427" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2428" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2428" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2428">
+        <v>3642.97</v>
+      </c>
+      <c r="J2428" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2429" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2429" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2429">
+        <v>2657.16</v>
+      </c>
+      <c r="J2429" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2430" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2430" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2430">
+        <v>1183.33</v>
+      </c>
+      <c r="J2430" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2431" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2431" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2431">
+        <v>3620.59</v>
+      </c>
+      <c r="J2431" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2432" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>420</v>
+      </c>
+      <c r="H2432" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2432">
+        <v>5778</v>
+      </c>
+      <c r="J2432" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2433" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G2433" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2433" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2433">
+        <v>36458</v>
+      </c>
+      <c r="J2433" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2434" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>420</v>
+      </c>
+      <c r="H2434" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2434">
+        <v>13609</v>
+      </c>
+      <c r="J2434" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2435" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2435" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2435">
+        <v>2000</v>
+      </c>
+      <c r="J2435" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2436" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G2436" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H2436" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2436">
+        <v>26019</v>
+      </c>
+      <c r="J2436" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2437" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2437" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2437">
+        <v>4000</v>
+      </c>
+      <c r="J2437" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2438" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2438" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2438">
+        <v>3000</v>
+      </c>
+      <c r="J2438" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2439" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2439">
+        <v>3115417415</v>
+      </c>
+      <c r="G2439" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H2439" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2439">
+        <v>40184.519999999997</v>
+      </c>
+      <c r="J2439" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2440" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2440" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2440">
+        <v>100000</v>
+      </c>
+      <c r="J2440" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2441" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2441" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2441">
+        <v>33768.82</v>
+      </c>
+      <c r="J2441" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2442" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2442" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2442">
+        <v>2155.46</v>
+      </c>
+      <c r="J2442" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2443" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2443" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2443">
+        <v>37076.81</v>
+      </c>
+      <c r="J2443" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2444" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2444" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2444">
+        <v>2366.6</v>
+      </c>
+      <c r="J2444" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2445" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2445" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2445">
+        <v>42491.87</v>
+      </c>
+      <c r="J2445" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2446" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2446" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2446">
+        <v>2712.25</v>
+      </c>
+      <c r="J2446" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2447" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2447" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2447">
+        <v>70630</v>
+      </c>
+      <c r="J2447" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2448" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2448" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2448">
+        <v>88236.99</v>
+      </c>
+      <c r="J2448" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2449" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2449" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2449">
+        <v>2432.52</v>
+      </c>
+      <c r="J2449" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2450" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2450" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2450">
+        <v>1767.84</v>
+      </c>
+      <c r="J2450" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2451" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2451" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2451">
+        <v>2157.6</v>
+      </c>
+      <c r="J2451" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2452" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2452" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2452">
+        <v>3185.36</v>
+      </c>
+      <c r="J2452" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2453" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2453" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2453">
+        <v>1242.3599999999999</v>
+      </c>
+      <c r="J2453" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2454" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2454" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2454">
+        <v>1403.6</v>
+      </c>
+      <c r="J2454" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2455" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2455" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2455">
+        <v>69862.8</v>
+      </c>
+      <c r="J2455" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2456" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2456" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2456">
+        <v>1305.99</v>
+      </c>
+      <c r="J2456" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2457" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2457" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2457">
+        <v>5397.6</v>
+      </c>
+      <c r="J2457" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2458" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2458" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2458">
+        <v>787.5</v>
+      </c>
+      <c r="J2458" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2459" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2459" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2459">
+        <v>2173.1</v>
+      </c>
+      <c r="J2459" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2460" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>947</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2460" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2460">
+        <v>3025</v>
+      </c>
+      <c r="J2460" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2461" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2461" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2461">
+        <v>3008.33</v>
+      </c>
+      <c r="J2461" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2462" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2462" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2462">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="J2462" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2463" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>950</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2463" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2463">
+        <v>2570.83</v>
+      </c>
+      <c r="J2463" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2464" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2464" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2464">
+        <v>7045.78</v>
+      </c>
+      <c r="J2464" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2465" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2465">
+        <v>10401.549999999999</v>
+      </c>
+      <c r="J2465" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2466" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2466">
+        <v>2588.27</v>
+      </c>
+      <c r="J2466" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2467" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2467" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2467">
+        <v>5953.43</v>
+      </c>
+      <c r="J2467" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2468" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2468" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2468">
+        <v>20507.099999999999</v>
+      </c>
+      <c r="J2468" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2469" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2469" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2469">
+        <v>2215.3000000000002</v>
+      </c>
+      <c r="J2469" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2470" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>460</v>
+      </c>
+      <c r="H2470" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2470">
+        <v>48108.89</v>
+      </c>
+      <c r="J2470" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2471" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2471" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2471">
+        <v>1749</v>
+      </c>
+      <c r="J2471" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2472" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2472" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2472">
+        <v>2000</v>
+      </c>
+      <c r="J2472" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2473" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2473" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2473">
+        <v>1051</v>
+      </c>
+      <c r="J2473" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2474" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2474" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2474">
+        <v>7000</v>
+      </c>
+      <c r="J2474" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2475" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2475">
+        <v>20880</v>
+      </c>
+      <c r="J2475" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2476" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2476">
+        <v>750</v>
+      </c>
+      <c r="J2476" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2477" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2477">
+        <v>120</v>
+      </c>
+      <c r="J2477" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2478" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2478">
+        <v>25423.72</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2479" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2479">
+        <v>18305.089999999997</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2480" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2480">
+        <v>16949.150000000001</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2481" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2481">
+        <v>12203.39</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2482" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2482">
+        <v>25386.23000000001</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2483" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2483">
+        <v>49184.929999999993</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2484" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2484">
+        <v>21430.940000000002</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2485" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2485">
+        <v>49184.929999999993</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2486" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2486">
+        <v>21182.010000000009</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2487" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2487">
+        <v>49184.929999999993</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2488" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2488">
+        <v>21430.940000000002</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2489" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2489">
+        <v>49184.929999999993</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2490" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>2291</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2490">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2491" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2491">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2492" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2492">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2493" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2493">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2494" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2494">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2495" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2495">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2496" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2496">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2497" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2497">
+        <v>57531</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2498" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2498">
+        <v>91542</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2499" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2499">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2500" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>2298</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2500">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2501" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2501">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2502" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2502">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2503" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2503">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2504" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2504">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2505" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2505">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2506" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2506">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2507" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>2310</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2507">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2508" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>2311</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2508">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2509" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2509" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2509">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2510" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H2510" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2510">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2511" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2511" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2511">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2512" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G2512" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2512" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2512">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2513" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2513" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2513">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2514" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2514">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2515" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2515">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2516" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G2516" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2516">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2517" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>2317</v>
+      </c>
+      <c r="G2517" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2517">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2518" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G2518" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2518">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2519" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2519" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2519" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2519" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2519">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2520" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2520" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2520" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2520" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2520">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2521" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2521" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2521" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2521" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2521">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2522" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2522" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2522" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H2522" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2522">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2523" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2523" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2523" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H2523" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2523">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2524" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2524" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2524" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2524" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2524">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2525" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2525" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2525" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H2525" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2525">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2526" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2526" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2526" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2526" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2526">
+        <v>22740</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2527" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2527" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2527" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H2527" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2527">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2528" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2528" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2528" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2528" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2528">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2529" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2529" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2529" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2529" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2529">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2530" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2530" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2530" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2530">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2531" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2531" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2531" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2531">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2532" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2532" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2532">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2533" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2533" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2533">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2534" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2534" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2534" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2534">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2535" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2535" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2535" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2535">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2536" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2536" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G2536" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2536">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2537" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2537" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G2537" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2537">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2538" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2538" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2538" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2538">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2539" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2539" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G2539" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2539">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2540" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2540" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G2540" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2540">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2541" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2541" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G2541" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2541">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2542" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2542" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G2542" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2542">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2543" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2543" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G2543" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2543">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2544" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2544" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G2544" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2544">
+        <v>56101</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2545" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2545" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G2545" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2545">
+        <v>74846</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2546" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2546" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2546" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2546">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2547" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2547" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G2547" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2547">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2548" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2548" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G2548" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2548">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2549" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2549" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G2549" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H2549" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2549">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2550" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2550" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G2550" t="s">
+        <v>2336</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2550">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2551" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2551" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G2551" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H2551" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2551">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2552" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2552" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G2552" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2552">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2553" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2553" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G2553" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2553">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2554" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2554" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G2554" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2554" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2554">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2555" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2555" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G2555" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2555" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2555">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2556" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2556" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G2556" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2556">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2557" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2557" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G2557" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2557" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2557">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2558" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2558" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G2558" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2558" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2558">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2559" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2559" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G2559" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2559">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2560" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2560" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G2560" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2560">
+        <v>2250.88</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2561" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2561" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G2561" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2561">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2562" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2562" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G2562" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2562">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2563" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2563" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G2563" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2563">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2564" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2564" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2564" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2564">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2565" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2565" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2565" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2565">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2566" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2566" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G2566" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2566">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2567" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2567" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G2567" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2567" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2567">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2568" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2568" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G2568" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2568" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2568">
+        <v>59880</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2569" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2569" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G2569" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2569" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2569">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2570" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2570" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2570" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2570">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2571" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2571" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G2571" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2571">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2572" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2572" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G2572" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H2572" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2572">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2573" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2573" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G2573" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2573">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2574" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2574" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G2574" t="s">
+        <v>2358</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2574">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2575" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2575" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G2575" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H2575" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2575">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2576" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2576" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G2576" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2576">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2577" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2577" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2577" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2577">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2578" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2578" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2578" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2578" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2578">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2579" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2579" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2579" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2579">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2580" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2580" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2580" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2580">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2581" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2581" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G2581" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2581">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2582" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2582" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2582" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2582">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2583" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2583" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G2583" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2583">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2584" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2584" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G2584" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2584">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2585" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2585" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G2585" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2585">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2586" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2586" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G2586" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2586">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2587" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2587" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G2587" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2587">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2588" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2588" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G2588" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2588">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2589" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2589" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G2589" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2589">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2590" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2590" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G2590" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2590">
+        <v>61643</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2591" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2591" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G2591" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2591">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2592" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2592" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2592" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2592">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2593" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2593" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G2593" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2593">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2594" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2594" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G2594" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2594">
+        <v>16832</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2595" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2595" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G2595" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2595">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2596" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2596" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G2596" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2596">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2597" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2597" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G2597" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2597">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2598" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2598" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G2598" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2598">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2599" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2599" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G2599" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2599">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2600" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2600" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G2600" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2600">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2601" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2601" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G2601" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2601">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2602" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2602" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G2602" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2602">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2603" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2603" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G2603" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2603">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2604" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2604" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G2604" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2604">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2605" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2605" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G2605" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2605">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2606" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2606" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2606" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2606">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2607" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2607" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G2607" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2607">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2608" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2608" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G2608" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2608">
+        <v>14420</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2609" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2609" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G2609" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H2609" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2609">
+        <v>13347</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2610" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2610" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G2610" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H2610" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2610">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2611" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2611" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G2611" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2611" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2611">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2612" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2612" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G2612" t="s">
+        <v>705</v>
+      </c>
+      <c r="H2612" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2612">
+        <v>4254.37</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2613" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2613" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G2613" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2613" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2613">
+        <v>1281.8</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2614" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2614" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G2614" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2614" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2614">
+        <v>43.62</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2615" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2615" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G2615" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H2615" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2615">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2616" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2616" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G2616" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H2616" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2616">
+        <v>2900</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/egresos_vori_vost_2024.xlsx
+++ b/datasets/egresos_vori_vost_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0597E91D-6842-4D8F-A87D-26B659DC01B9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{0D64EC1E-8525-4F7D-8D38-683BC30C8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67C21044-A990-40D9-A115-2C3239BD82F4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8445D99A-C88D-4239-82C5-4B0D2B6DAF6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21642" uniqueCount="2612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23674" uniqueCount="2786">
   <si>
     <t>Fecha</t>
   </si>
@@ -7872,6 +7872,528 @@
   </si>
   <si>
     <t>CTVV 2993 - PROTOTIPO BILBAO-DEESA</t>
+  </si>
+  <si>
+    <t>FINIQUITO MARIA VERONICA VAZQUEZ LINARES</t>
+  </si>
+  <si>
+    <t>MARIA V. VAZQUEZ LINARES</t>
+  </si>
+  <si>
+    <t>RECOLECCION DE TABLEROS - MEXICO</t>
+  </si>
+  <si>
+    <t>GASOLINA PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIATICOS DE COBRANZA </t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - GLORIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - JOSE U. JARAMILLO</t>
+  </si>
+  <si>
+    <t>JOSE ULICES JAMARILLO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - LAZARO VILLESCA</t>
+  </si>
+  <si>
+    <t>LAZARO VILLESCA</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - ABRAHAM NIETO</t>
+  </si>
+  <si>
+    <t>ABRAHAM NIETO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - CONCEPCION G. SUAREZ</t>
+  </si>
+  <si>
+    <t>CONCEPCION G. SUAREZ</t>
+  </si>
+  <si>
+    <t>FINIQUITO - LUIS A. TAPIA CHAMAN</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO TAPIA CHAMAN</t>
+  </si>
+  <si>
+    <t>FINIQUITO - GERARDO ALEGRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTVV 2642 </t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DISEÑO SEM 36</t>
+  </si>
+  <si>
+    <t>GASOLINA VIRI</t>
+  </si>
+  <si>
+    <t>VIATICOS DE EXPO GDL</t>
+  </si>
+  <si>
+    <t>CONSULTA MEDICA - LUZ MARIA</t>
+  </si>
+  <si>
+    <t>LUZ MARIA</t>
+  </si>
+  <si>
+    <t>PASTELES DEL MES DE SEPT</t>
+  </si>
+  <si>
+    <t>GASOLINA ISMA</t>
+  </si>
+  <si>
+    <t>ARREGLO DE AIRE ACONDICIONADO - PRODUCCION</t>
+  </si>
+  <si>
+    <t>DR ARAYAN</t>
+  </si>
+  <si>
+    <t>DEVOLUCION DE HERRAJES</t>
+  </si>
+  <si>
+    <t>GASOLINA CONY</t>
+  </si>
+  <si>
+    <t>SEMANA 37 OPERATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 37 ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SEMANA 37 - APOYO PRACTICANTE</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - JESUS ROGELIO MUÑOZ</t>
+  </si>
+  <si>
+    <t>JESUS ROGELIO MUÑOZ</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - GERARDO ALEGRIA</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - CARLOS OMAR REYES</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL - BRAYAN Y. ALVAREZ</t>
+  </si>
+  <si>
+    <t>BRAYAN ALVAREZ CORREA</t>
+  </si>
+  <si>
+    <t>FINIQUITO - DORIBEL MEDINA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE CAMION VIEJO</t>
+  </si>
+  <si>
+    <t>ARREGLO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>CTVV 2642 $3,335.40 / CTVV 2644 $6,664.6</t>
+  </si>
+  <si>
+    <t>GASOLINA ALFONSO C</t>
+  </si>
+  <si>
+    <t>COMPRE DE CLORO Y PINOL</t>
+  </si>
+  <si>
+    <t>GASOLINA RUTA VV</t>
+  </si>
+  <si>
+    <t>GASOLINA DANA</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - PROPUESTA VERONA ZAMORA (10 CASAS) - MEDA CASA</t>
+  </si>
+  <si>
+    <t>CTVV 2644</t>
+  </si>
+  <si>
+    <t>FINIQUITO EVERARDO AYALA</t>
+  </si>
+  <si>
+    <t>HRS EXTRAS DE INSTALACION</t>
+  </si>
+  <si>
+    <t>1RA QUINCENA - SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>PAGO DE INTERESES BANCO AG SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>MEMORIA DE LAP DISEÑO - CARLOS YAEL</t>
+  </si>
+  <si>
+    <t>PRODUCTOS DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>GATOS 4TO ANIVERSARIO VV</t>
+  </si>
+  <si>
+    <t>FINIQUITO E INDEMINIZACION - NOEMI TORRES</t>
+  </si>
+  <si>
+    <t>FINIQUITO E INDEMNIZACION - PILAR CHAGOYA</t>
+  </si>
+  <si>
+    <t>PILAR CHAGIYA</t>
+  </si>
+  <si>
+    <t>PILAS PARA LASER</t>
+  </si>
+  <si>
+    <t>GASOLINA MARIANA</t>
+  </si>
+  <si>
+    <t>PAGO INTERESES - PLACOYT SEPT</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>FINIQUITO - LIZBETH M. PEREZ</t>
+  </si>
+  <si>
+    <t>REEMBOLSO LUIS DE LA PUENTE 1/2</t>
+  </si>
+  <si>
+    <t>LUIS DE LA PUENTE</t>
+  </si>
+  <si>
+    <t>COMIDA ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>TERMOS ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>MESEROS ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>MOBILIARIO ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>ADICIONALES ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>CTVV 3131 - HOTEL GRAND CANTALAGUA SUITE PRESIDENCIAL - ARTESA</t>
+  </si>
+  <si>
+    <t>ENTREGA DE MATERIAL - MADIJAL</t>
+  </si>
+  <si>
+    <t>SERVICIOS AGOSTO 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 36                  </t>
+  </si>
+  <si>
+    <t>F-1169</t>
+  </si>
+  <si>
+    <t>RENTA AGOSTO 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 36 2                             </t>
+  </si>
+  <si>
+    <t>F-1175</t>
+  </si>
+  <si>
+    <t>F-337233</t>
+  </si>
+  <si>
+    <t>F-337227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS SEM 36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 47EC                                          </t>
+  </si>
+  <si>
+    <t>F-47EC</t>
+  </si>
+  <si>
+    <t>F-338092</t>
+  </si>
+  <si>
+    <t>F-1528</t>
+  </si>
+  <si>
+    <t>CTVV 3112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTVV 3112 - REMODELACION CASA MATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 1529                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41401                             </t>
+  </si>
+  <si>
+    <t>F-41401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41623                              </t>
+  </si>
+  <si>
+    <t>F-41623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41693                                                     </t>
+  </si>
+  <si>
+    <t>F-41693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 36 3                                      </t>
+  </si>
+  <si>
+    <t>F-1176</t>
+  </si>
+  <si>
+    <t>SIPARE JULIO MORELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 37 </t>
+  </si>
+  <si>
+    <t>F-1180</t>
+  </si>
+  <si>
+    <t>CFE B270 - 288</t>
+  </si>
+  <si>
+    <t>COMPRA DE JARRA CAFÉ</t>
+  </si>
+  <si>
+    <t>COMPRA DE ATRONILLADOR</t>
+  </si>
+  <si>
+    <t>COMPRA DE CERRADURAS LOCKERS</t>
+  </si>
+  <si>
+    <t>COMPRA DE TECLADO COMPRAS</t>
+  </si>
+  <si>
+    <t>CARGA SEM 37 2</t>
+  </si>
+  <si>
+    <t>F-1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOLUCION PRESTAMO 1209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS 1309 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 37 3 </t>
+  </si>
+  <si>
+    <t>F-1188</t>
+  </si>
+  <si>
+    <t>CTVV 2938</t>
+  </si>
+  <si>
+    <t>CTVV 288</t>
+  </si>
+  <si>
+    <t>CTVV 3078</t>
+  </si>
+  <si>
+    <t>CTVV 3078 - PISO 5 CENTRO CAPITAL OFICINA 02 LN - CANACO</t>
+  </si>
+  <si>
+    <t>CTVV 1176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 1539 </t>
+  </si>
+  <si>
+    <t>F-1539</t>
+  </si>
+  <si>
+    <t>RENOVACION VORI VOST 1309</t>
+  </si>
+  <si>
+    <t>F-2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTTO 228 F151 </t>
+  </si>
+  <si>
+    <t>F-151</t>
+  </si>
+  <si>
+    <t>MANTTO 270 F152</t>
+  </si>
+  <si>
+    <t>F-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTACIONAMIENTO F857 </t>
+  </si>
+  <si>
+    <t>F-857</t>
+  </si>
+  <si>
+    <t>CARGA SEM 38 2</t>
+  </si>
+  <si>
+    <t>F-1191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 38 3 </t>
+  </si>
+  <si>
+    <t>F-1194</t>
+  </si>
+  <si>
+    <t>CARGA SEM 38 4</t>
+  </si>
+  <si>
+    <t>F-1198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS SEM 38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 38 5 </t>
+  </si>
+  <si>
+    <t>F-1199</t>
+  </si>
+  <si>
+    <t>F-1551</t>
+  </si>
+  <si>
+    <t>CTVV 2319</t>
+  </si>
+  <si>
+    <t>CTVV 2319 - COCINA ALEJANDRO RUIZ</t>
+  </si>
+  <si>
+    <t>CTVV 3161</t>
+  </si>
+  <si>
+    <t>CTVV 3161 - REEMPLAZO DE MOBILIARIO - HOGARES DEESA</t>
+  </si>
+  <si>
+    <t>CTVV 2773</t>
+  </si>
+  <si>
+    <t>CTVV 3142</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - PROPUESTA VERONA - MEDA CASA ZAMORA</t>
+  </si>
+  <si>
+    <t>CTVV 2651</t>
+  </si>
+  <si>
+    <t>CTVV 2651 - VERONESA PROTOTIPO A - CONSTRUCTORA HYG</t>
+  </si>
+  <si>
+    <t>CTVV 3073</t>
+  </si>
+  <si>
+    <t>CTVV 3073 - LIBRERO ESCRITORIO NIÑO- CRISTINA BARBA</t>
+  </si>
+  <si>
+    <t>'04245S5D540043626491</t>
+  </si>
+  <si>
+    <t>'04245S5T990043624460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 39              </t>
+  </si>
+  <si>
+    <t>F-1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41797                                  </t>
+  </si>
+  <si>
+    <t>F-41797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 41817                      </t>
+  </si>
+  <si>
+    <t>F-41817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 39 4                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 39 3                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 95612                                          </t>
+  </si>
+  <si>
+    <t>F-95612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 95613                                              </t>
+  </si>
+  <si>
+    <t>F-95613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASPASO ENTRE CUENTAS 2709       </t>
+  </si>
+  <si>
+    <t>DEVOLUCION DE PRESTAMO 2709</t>
+  </si>
+  <si>
+    <t>F-1552</t>
+  </si>
+  <si>
+    <t>CTVV 3144</t>
+  </si>
+  <si>
+    <t>CTVV 3144 - TORRE ARIA PROTOTIPO A- DESARROLLADORA INJESA</t>
+  </si>
+  <si>
+    <t>CTVV 3125</t>
+  </si>
+  <si>
+    <t>CTVV 3125 - REMODELACION PUERTA SUR - VERONICA ERON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 1553                           </t>
+  </si>
+  <si>
+    <t>F-1553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA SEM 39 5                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA 1545 RENTA B270                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOLUCION PRESTAMO 2709                                                  </t>
+  </si>
+  <si>
+    <t>'31095629990143692255</t>
+  </si>
+  <si>
+    <t>TRASPASO ENTRE CUENTAS 3009</t>
   </si>
 </sst>
 </file>
@@ -7944,8 +8466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}" name="Tabla1" displayName="Tabla1" ref="A1:J2916" totalsRowShown="0">
-  <autoFilter ref="A1:J2916" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}" name="Tabla1" displayName="Tabla1" ref="A1:J3185" totalsRowShown="0">
+  <autoFilter ref="A1:J3185" xr:uid="{DE7D85B2-BF22-4A86-94C6-D9B5559D6072}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6496E6E2-3EFF-490D-8372-1A321A39497A}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7EE87F25-CD44-454E-B788-99841D5EFFAB}" name="Cliente"/>
@@ -8279,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609A72D3-1031-4DB7-950F-61A2759BA625}">
-  <dimension ref="A1:J2916"/>
+  <dimension ref="A1:J3185"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2926" workbookViewId="0">
+      <selection activeCell="A2917" sqref="A2917:J3185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -96692,6 +97214,8257 @@
         <v>560</v>
       </c>
     </row>
+    <row r="2917" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2917" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2917" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G2917" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2917">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2918" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2918" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2918" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G2918" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2918">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2919" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2919" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G2919" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2919">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2920" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2920" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G2920" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2920">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2921" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2921" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G2921" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2921">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2922" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2922" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G2922" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2922">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2923" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2923" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2923" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2923">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2924" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2924" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2924" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2924">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2925" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2925" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G2925" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2925">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2926" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2926" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G2926" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2926">
+        <v>56221</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2927" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2927" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G2927" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2927">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2928" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2928" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2928" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2928">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2929" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2929" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2929" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2929">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2930" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2930" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G2930" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2930">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2931" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2931" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G2931" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2931">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2932" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2932" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G2932" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2932">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2933" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2933" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G2933" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2933">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2934" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2934" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G2934" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2934">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2935" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2935" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G2935" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2935">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2936" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2936" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G2936" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2936">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2937" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2937" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G2937" t="s">
+        <v>2291</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2937">
+        <v>7435</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2938" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2938" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G2938" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2938">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2939" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2939" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2939" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2939">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2940" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2940" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2940" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2940">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2941" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2941" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2941" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2941">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2942" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2942" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G2942" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2942">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2943" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2943" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G2943" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2943">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2944" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2944" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2944" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G2944" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2944" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2944">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2945" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2945" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2945" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2945" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2945" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2945">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2946" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2946" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2946" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G2946" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H2946" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2946">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2947" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2947" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2947" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2947" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2947" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2947">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2948" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2948" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2948" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2948" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2948" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2948">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2949" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2949" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2949" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G2949" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H2949" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2949">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2950" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2950" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2950" t="s">
+        <v>2636</v>
+      </c>
+      <c r="G2950" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2950" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2950">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2951" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2951" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2951" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G2951" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H2951" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2951">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2952" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2952" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2952" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G2952" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2952" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2952">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2953" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2953" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2953" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G2953" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2953" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2953">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2954" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2954" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2954" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G2954" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2954" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2954">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2955" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2955" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2955" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2955" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2955" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2955">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2956" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2956" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2956" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2956" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2956" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2956">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2957" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2957" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2957" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G2957" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2957" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2957">
+        <v>56528</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2958" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2958" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2958" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G2958" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2958" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2958">
+        <v>24870</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2959" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2959" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2959" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G2959" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H2959" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2959">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2960" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2960" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2960" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2960" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2960">
+        <v>13723</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2961" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2961" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G2961" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2961" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2961">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2962" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2962" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G2962" t="s">
+        <v>2645</v>
+      </c>
+      <c r="H2962" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2962">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2963" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2963" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G2963" t="s">
+        <v>2291</v>
+      </c>
+      <c r="H2963" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2963">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2964" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2964" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G2964" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2964" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2964">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2965" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2965" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G2965" t="s">
+        <v>2649</v>
+      </c>
+      <c r="H2965" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2965">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2966" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2966" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G2966" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H2966" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2966">
+        <v>9784</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2967" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2967" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G2967" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2967" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2967">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2968" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2968" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2968" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2968" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2968">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2969" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2969" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2969" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2969" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2969">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2970" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2970" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2970" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2970" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2970">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2971" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2971" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2971" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2971" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2971">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2972" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2972" t="s">
+        <v>2551</v>
+      </c>
+      <c r="G2972" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H2972" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2972">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2973" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2973" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G2973" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2973" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2973">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2974" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2974" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G2974" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2974" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2974">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2975" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2975" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G2975" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2975" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2975">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2976" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2976" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2976" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H2976" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2976">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2977" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2977" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G2977" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H2977" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2977">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2978" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2978" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G2978" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2978" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2978">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2979" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2979" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G2979" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H2979" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2979">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2980" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2980" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G2980" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2980" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2980">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2981" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2981" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G2981" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2981" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2981">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2982" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2982" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G2982" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H2982" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2982">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2983" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2983" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G2983" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2983" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2983">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2984" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2984" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2984" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2984" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2984">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2985" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2985" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G2985" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2985" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2985">
+        <v>59577</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2986" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2986" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G2986" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2986" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2986">
+        <v>69468</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2987" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2987" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G2987" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H2987" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2987">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2988" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2988" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2988" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2988" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2988">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2989" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2989" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G2989" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2989" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2989">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2990" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2990" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G2990" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2990" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2990">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2991" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2991" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G2991" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H2991" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2991">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2992" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2992" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G2992" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2992" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2992">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2993" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2993" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G2993" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2993" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2993">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2994" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2994" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G2994" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2994" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2994">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2995" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2995" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G2995" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2995" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2995">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2996" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2996" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G2996" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2996" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2996">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2997" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2997" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G2997" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2997" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2997">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2998" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2998" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G2998" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2998" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2998">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2999" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2999" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G2999" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H2999" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2999">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3000" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3000" t="s">
+        <v>2668</v>
+      </c>
+      <c r="G3000" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H3000" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3000">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3001" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3001" t="s">
+        <v>2670</v>
+      </c>
+      <c r="G3001" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3001" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3001">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3002" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3002" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G3002" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3002" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3002">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3003" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3003" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G3003" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3003" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3003">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3004" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3004" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G3004" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3004" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3004">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3005" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3005" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3005" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3005" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3005">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3006" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3006" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G3006" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3006" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3006">
+        <v>56773</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3007" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3007" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G3007" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3007" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3007">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3008" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3008" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G3008" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H3008" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3008">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3009" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3009" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3009" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3009" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3009">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3010" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3010" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G3010" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3010" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3010">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3011" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3011" t="s">
+        <v>2672</v>
+      </c>
+      <c r="G3011" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H3011" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3011">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3012" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3012" t="s">
+        <v>2674</v>
+      </c>
+      <c r="G3012" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H3012" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3012">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3013" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3013" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G3013" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H3013" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3013">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3014" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3014" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G3014" t="s">
+        <v>2676</v>
+      </c>
+      <c r="H3014" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3014">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3015" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3015" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G3015" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3015" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3015">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3016" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3016" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G3016" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3016" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3016">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3017" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3017" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G3017" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3017" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3017">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3018" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3018" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G3018" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3018" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3018">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3019" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3019" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G3019" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3019" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3019">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3020" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3020" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G3020" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3020" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3020">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3021" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3021" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G3021" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3021" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3021">
+        <v>4464</v>
+      </c>
+      <c r="J3021" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3022" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3022" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G3022" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3022" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3022">
+        <v>2000</v>
+      </c>
+      <c r="J3022" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3023" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3023" t="s">
+        <v>2687</v>
+      </c>
+      <c r="G3023" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3023" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3023">
+        <v>12860.27</v>
+      </c>
+      <c r="J3023" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3024" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3024" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3024" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3024" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3024">
+        <v>200</v>
+      </c>
+      <c r="J3024" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3025" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3025" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3025" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3025" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3025">
+        <v>32</v>
+      </c>
+      <c r="J3025" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3026" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3026" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G3026" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3026" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3026">
+        <v>5000</v>
+      </c>
+      <c r="J3026" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3027" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3027" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G3027" t="s">
+        <v>805</v>
+      </c>
+      <c r="H3027" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3027">
+        <v>29</v>
+      </c>
+      <c r="J3027" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3028" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3028" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G3028" t="s">
+        <v>805</v>
+      </c>
+      <c r="H3028" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3028">
+        <v>29</v>
+      </c>
+      <c r="J3028" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3029" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3029" t="s">
+        <v>2692</v>
+      </c>
+      <c r="G3029" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3029" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3029">
+        <v>67900</v>
+      </c>
+      <c r="J3029" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3030" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3030" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3030" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3030" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3030">
+        <v>81569.73</v>
+      </c>
+      <c r="J3030" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3031" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3031" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G3031" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3031" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3031">
+        <v>45981.5</v>
+      </c>
+      <c r="J3031" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3032" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3032" t="s">
+        <v>804</v>
+      </c>
+      <c r="G3032" t="s">
+        <v>805</v>
+      </c>
+      <c r="H3032" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3032">
+        <v>34000</v>
+      </c>
+      <c r="J3032" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3033" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3033" t="s">
+        <v>807</v>
+      </c>
+      <c r="G3033" t="s">
+        <v>805</v>
+      </c>
+      <c r="H3033" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3033">
+        <v>11500</v>
+      </c>
+      <c r="J3033" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3034" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3034" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3034" t="s">
+        <v>805</v>
+      </c>
+      <c r="H3034" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3034">
+        <v>1688.9599999999991</v>
+      </c>
+      <c r="J3034" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3035" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3035" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3035" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3035" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3035">
+        <v>4132.37</v>
+      </c>
+      <c r="J3035" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3036" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3036" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G3036" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3036" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3036">
+        <v>1856.1</v>
+      </c>
+      <c r="J3036" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3037" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3037" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3037" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3037" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3037">
+        <v>1625</v>
+      </c>
+      <c r="J3037" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3038" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3038" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3038" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3038" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3038">
+        <v>14430.8</v>
+      </c>
+      <c r="J3038" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3039" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3039" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3039" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3039" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3039">
+        <v>1183.33</v>
+      </c>
+      <c r="J3039" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3040" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3040" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3040" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3040" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3040">
+        <v>2066.4</v>
+      </c>
+      <c r="J3040" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3041" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3041" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3041" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3041" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3041">
+        <v>1083.33</v>
+      </c>
+      <c r="J3041" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3042" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3042" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3042" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3042" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3042">
+        <v>11132.39</v>
+      </c>
+      <c r="J3042" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3043" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3043" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3043" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3043" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3043">
+        <v>5962.49</v>
+      </c>
+      <c r="J3043" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3044" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3044" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3044" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3044" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3044">
+        <v>2190</v>
+      </c>
+      <c r="J3044" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3045" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3045" t="s">
+        <v>945</v>
+      </c>
+      <c r="G3045" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3045" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3045">
+        <v>600</v>
+      </c>
+      <c r="J3045" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3046" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3046" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3046" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3046" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3046">
+        <v>8312</v>
+      </c>
+      <c r="J3046" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3047" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3047" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G3047" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3047" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3047">
+        <v>2728.71</v>
+      </c>
+      <c r="J3047" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3048" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3048" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G3048" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3048" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3048">
+        <v>87232.95</v>
+      </c>
+      <c r="J3048" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3049" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3049" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G3049" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3049" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3049">
+        <v>1932.56</v>
+      </c>
+      <c r="J3049" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3050" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3050" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G3050" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3050" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3050">
+        <v>2607.6799999999998</v>
+      </c>
+      <c r="J3050" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3051" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3051" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G3051" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3051" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3051">
+        <v>1597.32</v>
+      </c>
+      <c r="J3051" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3052" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3052" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G3052" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3052" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3052">
+        <v>2500</v>
+      </c>
+      <c r="J3052" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3053" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3053" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3053" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3053" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3053">
+        <v>20432.87</v>
+      </c>
+      <c r="J3053" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3054" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3054" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3054" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3054" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3054">
+        <v>9638.5300000000007</v>
+      </c>
+      <c r="J3054" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3055" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3055" t="s">
+        <v>728</v>
+      </c>
+      <c r="G3055" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3055" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3055">
+        <v>20432.87</v>
+      </c>
+      <c r="J3055" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3056" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3056" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3056" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3056" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3056">
+        <v>12196.84</v>
+      </c>
+      <c r="J3056" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3057" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3057" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3057" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3057" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3057">
+        <v>797.09</v>
+      </c>
+      <c r="J3057" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3058" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3058" t="s">
+        <v>729</v>
+      </c>
+      <c r="G3058" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3058" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3058">
+        <v>797.09</v>
+      </c>
+      <c r="J3058" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3059" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3059" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G3059" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3059" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3059">
+        <v>151793.97</v>
+      </c>
+      <c r="J3059" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3060" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3060" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3060" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3060" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3060">
+        <v>499</v>
+      </c>
+      <c r="J3060" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3061" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3061" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G3061" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3061" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3061">
+        <v>71428.570000000007</v>
+      </c>
+      <c r="J3061" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3062" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3062" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3062" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G3062" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3062" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3062">
+        <v>37003.17</v>
+      </c>
+      <c r="J3062" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3063" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3063" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G3063" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3063" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3063">
+        <v>2000</v>
+      </c>
+      <c r="J3063" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3064" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3064" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G3064" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3064" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3064">
+        <v>5005.54</v>
+      </c>
+      <c r="J3064" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3065" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3065" t="s">
+        <v>2711</v>
+      </c>
+      <c r="G3065" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3065" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3065">
+        <v>39424</v>
+      </c>
+      <c r="J3065" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3066" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3066" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G3066" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3066" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3066">
+        <v>2577</v>
+      </c>
+      <c r="J3066" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3067" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3067" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G3067" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3067" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3067">
+        <v>1412.32</v>
+      </c>
+      <c r="J3067" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3068" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3068" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G3068" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3068" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3068">
+        <v>9577.2999999999993</v>
+      </c>
+      <c r="J3068" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3069" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3069" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G3069" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3069" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3069">
+        <v>49</v>
+      </c>
+      <c r="J3069" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3070" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3070" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G3070" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3070" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3070">
+        <v>260</v>
+      </c>
+      <c r="J3070" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3071" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3071" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G3071" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3071" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3071">
+        <v>2437</v>
+      </c>
+      <c r="J3071" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3072" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3072" t="s">
+        <v>2714</v>
+      </c>
+      <c r="G3072" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3072" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3072">
+        <v>1134</v>
+      </c>
+      <c r="J3072" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3073" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3073" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G3073" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3073" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3073">
+        <v>288</v>
+      </c>
+      <c r="J3073" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3074" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3074" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G3074" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3074" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3074">
+        <v>1000</v>
+      </c>
+      <c r="J3074" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3075" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3075" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3075" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3075" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3075">
+        <v>368</v>
+      </c>
+      <c r="J3075" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3076" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3076" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3076" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3076" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3076">
+        <v>58.88</v>
+      </c>
+      <c r="J3076" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3077" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3077" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G3077" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3077" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3077">
+        <v>100000</v>
+      </c>
+      <c r="J3077" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3078" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3078" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G3078" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3078" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3078">
+        <v>67130</v>
+      </c>
+      <c r="J3078" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3079" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3079" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G3079" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3079" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3079">
+        <v>82316.62</v>
+      </c>
+      <c r="J3079" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3080" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3080" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G3080" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3080" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3080">
+        <v>4000</v>
+      </c>
+      <c r="J3080" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3081" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3081" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3081" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3081" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3081">
+        <v>2258.9</v>
+      </c>
+      <c r="J3081" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3082" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3082" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3082" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3082" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3082">
+        <v>5415</v>
+      </c>
+      <c r="J3082" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3083" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3083" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3083" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3083" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3083">
+        <v>2189</v>
+      </c>
+      <c r="J3083" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3084" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3084" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3084" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3084" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3084">
+        <v>5717.5</v>
+      </c>
+      <c r="J3084" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3085" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3085" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3085" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3085" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3085">
+        <v>17980.52</v>
+      </c>
+      <c r="J3085" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3086" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3086" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3086" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3086" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3086">
+        <v>4248</v>
+      </c>
+      <c r="J3086" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3087" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3087" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3087" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3087" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3087">
+        <v>912.5</v>
+      </c>
+      <c r="J3087" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3088" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3088" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3088" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3088" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3088">
+        <v>912.5</v>
+      </c>
+      <c r="J3088" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3089" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3089" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3089" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3089" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3089">
+        <v>1500</v>
+      </c>
+      <c r="J3089" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3090" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3090" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3090" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3090" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3090">
+        <v>1466.8</v>
+      </c>
+      <c r="J3090" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3091" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3091" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3091" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3091" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3091">
+        <v>3443.92</v>
+      </c>
+      <c r="J3091" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3092" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3092" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3092" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3092" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3092">
+        <v>1900</v>
+      </c>
+      <c r="J3092" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3093" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3093" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3093" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3093" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3093">
+        <v>1875</v>
+      </c>
+      <c r="J3093" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3094" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3094" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3094" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3094" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3094">
+        <v>375</v>
+      </c>
+      <c r="J3094" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3095" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3095" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3095" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3095" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3095">
+        <v>937.5</v>
+      </c>
+      <c r="J3095" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3096" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3096" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G3096" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3096" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3096">
+        <v>2556.61</v>
+      </c>
+      <c r="J3096" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3097" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3097" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G3097" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3097" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3097">
+        <v>46818.45</v>
+      </c>
+      <c r="J3097" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3098" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3098" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G3098" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3098" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3098">
+        <v>15740</v>
+      </c>
+      <c r="J3098" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3099" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3099" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G3099" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3099" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3099">
+        <v>2230.42</v>
+      </c>
+      <c r="J3099" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3100" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3100" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G3100" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3100" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3100">
+        <v>2250.88</v>
+      </c>
+      <c r="J3100" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3101" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3101" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G3101" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3101" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3101">
+        <v>10440</v>
+      </c>
+      <c r="J3101" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3102" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3102" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G3102" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3102" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3102">
+        <v>1000</v>
+      </c>
+      <c r="J3102" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3103" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3103" t="s">
+        <v>2739</v>
+      </c>
+      <c r="G3103" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3103" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3103">
+        <v>1000</v>
+      </c>
+      <c r="J3103" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3104" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3104" t="s">
+        <v>2741</v>
+      </c>
+      <c r="G3104" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3104" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3104">
+        <v>500</v>
+      </c>
+      <c r="J3104" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3105" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3105" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G3105" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3105" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3105">
+        <v>66633</v>
+      </c>
+      <c r="J3105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3106" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3106" t="s">
+        <v>2744</v>
+      </c>
+      <c r="G3106" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3106" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3106">
+        <v>4500</v>
+      </c>
+      <c r="J3106" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3107" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3107" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G3107" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3107" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3107">
+        <v>83312.34</v>
+      </c>
+      <c r="J3107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3108" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3108" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3108" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3108" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3108">
+        <v>750</v>
+      </c>
+      <c r="J3108" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3109" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3109" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3109" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3109" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3109">
+        <v>750</v>
+      </c>
+      <c r="J3109" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3110" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3110" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3110" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3110" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3110" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3110">
+        <v>3900</v>
+      </c>
+      <c r="J3110" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3111" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3111" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3111" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3111" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3111">
+        <v>2049.16</v>
+      </c>
+      <c r="J3111" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3112" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3112" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3112" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3112" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3112">
+        <v>641.66999999999996</v>
+      </c>
+      <c r="J3112" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3113" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3113" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3113" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3113" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3113">
+        <v>812.5</v>
+      </c>
+      <c r="J3113" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3114" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3114" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3114" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3114">
+        <v>93.75</v>
+      </c>
+      <c r="J3114" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3115" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3115" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3115" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3115" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3115">
+        <v>3200.4</v>
+      </c>
+      <c r="J3115" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3116" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3116" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3116" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3116" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3116">
+        <v>5415</v>
+      </c>
+      <c r="J3116" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3117" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3117" t="s">
+        <v>945</v>
+      </c>
+      <c r="G3117" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3117" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3117">
+        <v>1115</v>
+      </c>
+      <c r="J3117" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3118" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3118" t="s">
+        <v>945</v>
+      </c>
+      <c r="G3118" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3118" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3118">
+        <v>937.5</v>
+      </c>
+      <c r="J3118" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3119" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3119" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3119" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3119" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3119">
+        <v>3042.55</v>
+      </c>
+      <c r="J3119" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3120" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3120" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3120" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3120" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3120">
+        <v>1183.33</v>
+      </c>
+      <c r="J3120" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3121" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3121" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G3121" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3121" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3121">
+        <v>1960</v>
+      </c>
+      <c r="J3121" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3122" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3122" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3122" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3122" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3122">
+        <v>4200</v>
+      </c>
+      <c r="J3122" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3123" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3123" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3123" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3123" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3123">
+        <v>1826.5</v>
+      </c>
+      <c r="J3123" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3124" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3124" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3124" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3124" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3124">
+        <v>2257.1</v>
+      </c>
+      <c r="J3124" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3125" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3125" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3125" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3125" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3125">
+        <v>4495.3999999999996</v>
+      </c>
+      <c r="J3125" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3126" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3126" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3126" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3126" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3126">
+        <v>9253.75</v>
+      </c>
+      <c r="J3126" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3127" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3127" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3127" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3127" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3127">
+        <v>632.1</v>
+      </c>
+      <c r="J3127" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3128" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3128" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3128" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3128" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3128">
+        <v>750</v>
+      </c>
+      <c r="J3128" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3129" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3129" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3129" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3129" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3129">
+        <v>405.93</v>
+      </c>
+      <c r="J3129" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3130" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3130" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G3130" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3130">
+        <v>2483.16</v>
+      </c>
+      <c r="J3130" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3131" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3131" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G3131" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3131" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3131">
+        <v>10485</v>
+      </c>
+      <c r="J3131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3132" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3132" t="s">
+        <v>2759</v>
+      </c>
+      <c r="G3132" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3132" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3132">
+        <v>5096</v>
+      </c>
+      <c r="J3132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3133" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3133" t="s">
+        <v>964</v>
+      </c>
+      <c r="G3133" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3133" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3133">
+        <v>1677</v>
+      </c>
+      <c r="J3133" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3134" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3134" t="s">
+        <v>2760</v>
+      </c>
+      <c r="G3134" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3134" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3134">
+        <v>1000</v>
+      </c>
+      <c r="J3134" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3135" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3135" t="s">
+        <v>2762</v>
+      </c>
+      <c r="G3135" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3135" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3135">
+        <v>4434.68</v>
+      </c>
+      <c r="J3135" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3136" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3136" t="s">
+        <v>2764</v>
+      </c>
+      <c r="G3136" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3136" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3136">
+        <v>1756.24</v>
+      </c>
+      <c r="J3136" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3137" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3137">
+        <v>3115417415</v>
+      </c>
+      <c r="G3137" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H3137" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3137">
+        <v>40184.519999999997</v>
+      </c>
+      <c r="J3137" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3138" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3138" t="s">
+        <v>2766</v>
+      </c>
+      <c r="G3138" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3138" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3138">
+        <v>2000</v>
+      </c>
+      <c r="J3138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3139" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3139" t="s">
+        <v>2767</v>
+      </c>
+      <c r="G3139" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3139" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3139">
+        <v>1500</v>
+      </c>
+      <c r="J3139" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3140" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3140" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G3140" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3140" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3140">
+        <v>42202.75</v>
+      </c>
+      <c r="J3140" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3141" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3141" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G3141" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3141" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3141">
+        <v>2693.79</v>
+      </c>
+      <c r="J3141" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3142" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3142" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G3142" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3142" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3142">
+        <v>37659.86</v>
+      </c>
+      <c r="J3142" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3143" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3143" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G3143" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3143" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3143">
+        <v>2403.8200000000002</v>
+      </c>
+      <c r="J3143" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3144" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3144" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G3144" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3144" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3144">
+        <v>66900</v>
+      </c>
+      <c r="J3144" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3145" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3145" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G3145" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3145" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3145">
+        <v>50000</v>
+      </c>
+      <c r="J3145" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3146" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3146" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3146" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3146" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3146">
+        <v>750</v>
+      </c>
+      <c r="J3146" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3147" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3147" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3147" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3147" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3147">
+        <v>2550</v>
+      </c>
+      <c r="J3147" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3148" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3148" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G3148" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3148" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3148">
+        <v>1050</v>
+      </c>
+      <c r="J3148" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3149" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3149" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3149" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3149" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3149">
+        <v>750</v>
+      </c>
+      <c r="J3149" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3150" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3150" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G3150" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3150" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3150">
+        <v>1125</v>
+      </c>
+      <c r="J3150" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3151" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3151" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3151" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3151" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3151">
+        <v>6293</v>
+      </c>
+      <c r="J3151" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3152" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3152" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3152" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3152" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3152">
+        <v>5415</v>
+      </c>
+      <c r="J3152" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3153" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3153" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G3153" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3153" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3153">
+        <v>12980</v>
+      </c>
+      <c r="J3153" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3154" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3154" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3154" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3154" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3154">
+        <v>4872</v>
+      </c>
+      <c r="J3154" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3155" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3155" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3155" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3155" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3155">
+        <v>2808</v>
+      </c>
+      <c r="J3155" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3156" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3156" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3156" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3156" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3156">
+        <v>541.5</v>
+      </c>
+      <c r="J3156" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3157" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>998</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3157" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3157" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3157" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3157">
+        <v>3793</v>
+      </c>
+      <c r="J3157" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3158" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3158" t="s">
+        <v>945</v>
+      </c>
+      <c r="G3158" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3158" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3158">
+        <v>1265.5999999999999</v>
+      </c>
+      <c r="J3158" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3159" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3159" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3159" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3159" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3159">
+        <v>543.58999999999992</v>
+      </c>
+      <c r="J3159" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3160" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3160" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G3160" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3160" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3160">
+        <v>2656.1</v>
+      </c>
+      <c r="J3160" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3161" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3161" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3161" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3161" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3161">
+        <v>26678.85</v>
+      </c>
+      <c r="J3161" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3162" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3162" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G3162" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3162" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3162">
+        <v>1730</v>
+      </c>
+      <c r="J3162" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3163" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3163" t="s">
+        <v>950</v>
+      </c>
+      <c r="G3163" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3163" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3163">
+        <v>4835.97</v>
+      </c>
+      <c r="J3163" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3164" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3164" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G3164" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3164" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3164">
+        <v>3730.3700000000099</v>
+      </c>
+      <c r="J3164" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3165" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3165" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G3165" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3165" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3165">
+        <v>64216.95</v>
+      </c>
+      <c r="J3165" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3166" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3166" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3166" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3166" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3166">
+        <v>80430.59</v>
+      </c>
+      <c r="J3166" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3167" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3167" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G3167" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3167" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3167">
+        <v>8000</v>
+      </c>
+      <c r="J3167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3168" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3168" t="s">
+        <v>2782</v>
+      </c>
+      <c r="G3168" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3168" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3168">
+        <v>48108.89</v>
+      </c>
+      <c r="J3168" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3169" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3169" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G3169" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3169" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3169">
+        <v>36458</v>
+      </c>
+      <c r="J3169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3170" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3170" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G3170" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H3170" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3170">
+        <v>23539</v>
+      </c>
+      <c r="J3170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3171" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3171" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G3171" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3171" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3171">
+        <v>50000</v>
+      </c>
+      <c r="J3171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3172" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3172" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3172" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3172" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3172">
+        <v>750</v>
+      </c>
+      <c r="J3172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3173" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3173" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3173" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3173" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3173">
+        <v>120</v>
+      </c>
+      <c r="J3173" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3174" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G3174" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3174" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3174">
+        <v>25423.72</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3175" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3175" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3175" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3175" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3175">
+        <v>18214.690000000002</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3176" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3176" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G3176" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3176" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3176">
+        <v>16949.150000000001</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3177" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3177" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3177" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3177" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3177">
+        <v>12143.129999999997</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3178" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3178" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G3178" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3178" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3178">
+        <v>24639.440000000002</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3179" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3179" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G3179" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3179" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3179">
+        <v>43238.2</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3180" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3180" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G3180" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3180" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3180">
+        <v>24639.440000000002</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3181" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3181" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G3181" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3181" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3181">
+        <v>43238.2</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3182" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3182" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G3182" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3182" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3182">
+        <v>24639.440000000002</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3183" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3183" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G3183" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3183" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3183">
+        <v>43238.2</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3184" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3184" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G3184" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3184" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3184">
+        <v>24639.440000000002</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3185" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3185" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G3185" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3185" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3185">
+        <v>43238.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
